--- a/dados/Jogadores.xlsx
+++ b/dados/Jogadores.xlsx
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Marcão</t>
+          <t>Rodrigo Ely</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Rodrigo Ely</t>
+          <t>Marlon</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Marlon</t>
+          <t>Walter Kannemann</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Walter Kannemann</t>
+          <t>João Pedro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>João Pedro</t>
+          <t>Jemerson</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Jemerson</t>
+          <t>Mayk</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mayk</t>
+          <t>Luan Cândido</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Luan Cândido</t>
+          <t>Lucas Esteves</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lucas Esteves</t>
+          <t>João Lucas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>João Lucas</t>
+          <t>Wagner Leonardo</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Wagner Leonardo</t>
+          <t>Gustavo Martins</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Gustavo Martins</t>
+          <t>Viery</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Viery</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>Borges</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Borges</t>
+          <t>Luis Guedes</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Luis Guedes</t>
+          <t>Pedro Gabriel</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pedro Gabriel</t>
+          <t>Dodi</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Dodi</t>
+          <t>Gustavo Cuéllar</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Gustavo Cuéllar</t>
+          <t>Edenilson</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Edenilson</t>
+          <t>Francis Amuzu</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Francis Amuzu</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Mathías Villasanti</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mathías Villasanti</t>
+          <t>Franco Cristaldo</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Franco Cristaldo</t>
+          <t>Camilo</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Camilo</t>
+          <t>Cristian Olivera</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cristian Olivera</t>
+          <t>Miguel Monsalve</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Miguel Monsalve</t>
+          <t>Gabriel Silva</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Gabriel Silva</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ronald</t>
+          <t>Josué Souza</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Josué Souza</t>
+          <t>Araujo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Araujo</t>
+          <t>Riquelme</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Riquelme</t>
+          <t>Jardiel</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Jardiel</t>
+          <t>Tiago Goncalves</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tiago Goncalves</t>
+          <t>Bernardo Zortea</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Bernardo Zortea</t>
+          <t>Gabriel Mec</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Gabriel Mec</t>
+          <t>Cristian Pavón</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cristian Pavón</t>
+          <t>Alexander Aravena</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Alexander Aravena</t>
+          <t>Matías Arezo</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Matías Arezo</t>
+          <t>Wesley</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Wesley</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Andre</t>
+          <t>Lian</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lian</t>
+          <t>Alysson</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Alysson</t>
+          <t>Smiley</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Smiley</t>
+          <t>Jeferson</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3178,29 +3178,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Jeferson</t>
+          <t>Martin Braithwaite</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Martin Braithwaite</t>
+          <t>Weverton</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Weverton</t>
+          <t>Marcelo Lomba</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Marcelo Lomba</t>
+          <t>Mateus Oliveira</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mateus Oliveira</t>
+          <t>Mayke</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Mayke</t>
+          <t>Marcos Rocha</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Marcos Rocha</t>
+          <t>Gustavo Gómez</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Gustavo Gómez</t>
+          <t>Joaquín Piquerez</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Joaquín Piquerez</t>
+          <t>Bruno Fuchs</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Bruno Fuchs</t>
+          <t>Vanderlan</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Vanderlan</t>
+          <t>Murilo Cerqueira</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Murilo Cerqueira</t>
+          <t>Micael</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Micael</t>
+          <t>Agustin Giay</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Agustin Giay</t>
+          <t>Luis Gustavo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Luis Gustavo</t>
+          <t>Raphael Veiga</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Raphael Veiga</t>
+          <t>Lucas Evangelista</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Lucas Evangelista</t>
+          <t>Aníbal Moreno</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Aníbal Moreno</t>
+          <t>Mauricio</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Mauricio</t>
+          <t>Emiliano Martínez</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Emiliano Martínez</t>
+          <t>Facundo Torres Pérez</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Facundo Torres Pérez</t>
+          <t>Richard Rios</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Richard Rios</t>
+          <t>José Manuel López</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>José Manuel López</t>
+          <t>Kaiky Marques</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Kaiky Marques</t>
+          <t>Vitinho</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Vitinho</t>
+          <t>Vitor Figueiredo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vitor Figueiredo</t>
+          <t>Thalys</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Thalys</t>
+          <t>Paulinho</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Paulinho</t>
+          <t>Bruno Rodrigues</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Bruno Rodrigues</t>
+          <t>Estevao</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Estevao</t>
+          <t>Luighi Hanri</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Luighi Hanri</t>
+          <t>Riquelme Fillipi</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Riquelme Fillipi</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Felipe Anderson</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Left Winger</t>
         </is>
       </c>
     </row>
@@ -3739,29 +3739,29 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Felipe Anderson</t>
+          <t>Vítor Roque</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Vítor Roque</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Raul</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Raul</t>
+          <t>Leo Linck</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Leo Linck</t>
+          <t>Lara Silva</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3824,12 +3824,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Lara Silva</t>
+          <t>Vitinho</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Vitinho</t>
+          <t>Marçal</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Marçal</t>
+          <t>Alex Telles</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Alex Telles</t>
+          <t>Alexander Barboza</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Alexander Barboza</t>
+          <t>Philipe Sampaio</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Philipe Sampaio</t>
+          <t>Mateo Ponte</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Mateo Ponte</t>
+          <t>Bastos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Bastos</t>
+          <t>Jair Paula</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Jair Paula</t>
+          <t>João Pedro Galvão</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>João Pedro Galvão</t>
+          <t>Cuiabano</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Cuiabano</t>
+          <t>David Loiola</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>David Loiola</t>
+          <t>Vinicius Serafim</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Vinicius Serafim</t>
+          <t>Victor Hugo</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Victor Hugo</t>
+          <t>Caio Valle</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Caio Valle</t>
+          <t>Marlon Freitas</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Marlon Freitas</t>
+          <t>Gregore</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Gregore</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Jefferson Savarino</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Jefferson Savarino</t>
+          <t>Santiago Rodríguez</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Santiago Rodríguez</t>
+          <t>Patrick de Paula</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Patrick de Paula</t>
+          <t>Danilo Barbosa</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Danilo Barbosa</t>
+          <t>Matheus Martins</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Matheus Martins</t>
+          <t>Bernardo Valim</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Bernardo Valim</t>
+          <t>Kauê</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Kauê</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Newton</t>
+          <t>Kaua Branco</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Kaua Branco</t>
+          <t>Yarlen</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Yarlen</t>
+          <t>Kauan Lindes</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kauan Lindes</t>
+          <t>Lucyo</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Lucyo</t>
+          <t>Kayke</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Kayke</t>
+          <t>Ryan Do Couto</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ryan Do Couto</t>
+          <t>Rafael Genuino</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Rafael Genuino</t>
+          <t>Lucas Camilo</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Lucas Camilo</t>
+          <t>Zappelini</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Zappelini</t>
+          <t>Kauan</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4419,12 +4419,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Kauan</t>
+          <t>Artur Guimaraes</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Artur Guimaraes</t>
+          <t>Gonzalo Mastriani</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Gonzalo Mastriani</t>
+          <t>Elias Manoel</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Elias Manoel</t>
+          <t>Rwan Seco</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Rwan Seco</t>
+          <t>Weliton Santos</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Weliton Santos</t>
+          <t>Nathan Ribeiro</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Nenê</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>João Pedro</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Guilherme Pellegrin</t>
+          <t>João Pedro</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>João Vitor</t>
+          <t>Guilherme Pellegrin</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Fernando Vera</t>
+          <t>João Vitor</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Gabriel Caipira</t>
+          <t>Fernando Vera</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8227,12 +8227,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Maycon</t>
+          <t>Gabriel Caipira</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Ángel Romero</t>
+          <t>Maycon</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Ángel Romero</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Alex Santana</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>André Carrillo</t>
+          <t>Alex Santana</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Rodrigo Garro</t>
+          <t>André Carrillo</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Bidon</t>
+          <t>Rodrigo Garro</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>José Martínez</t>
+          <t>Bidon</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Kayke</t>
+          <t>José Martínez</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Igor Coronado</t>
+          <t>Kayke</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Rafael Correia</t>
+          <t>Igor Coronado</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Yago</t>
+          <t>Rafael Correia</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Yago</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Luiz de Nardi</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Luiz Eduardo</t>
+          <t>Luiz de Nardi</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Luiz Gustavo</t>
+          <t>Luiz Eduardo</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Yuri Alberto</t>
+          <t>Luiz Gustavo</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Héctor Hernández</t>
+          <t>Yuri Alberto</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Talles Magno</t>
+          <t>Héctor Hernández</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Giovane Nascimento</t>
+          <t>Talles Magno</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Guilherme Gama</t>
+          <t>Giovane Nascimento</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Dieguinho</t>
+          <t>Guilherme Gama</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8601,12 +8601,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Fabrizio Angileri</t>
+          <t>Dieguinho</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
@@ -8618,12 +8618,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Memphis Depay</t>
+          <t>Fabrizio Angileri</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Left-Back</t>
         </is>
       </c>
     </row>
@@ -8635,29 +8635,29 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Gustavo Henrique</t>
+          <t>Memphis Depay</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Daniel Fuzato</t>
+          <t>Gustavo Henrique</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Back</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Léo Jardim</t>
+          <t>Daniel Fuzato</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Phillipe Gabriel</t>
+          <t>Léo Jardim</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Phillipe Gabriel</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Renatinha</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Allan Vitor</t>
+          <t>Renatinha</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Victor Luis</t>
+          <t>Allan Vitor</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Mauricio Lemos</t>
+          <t>Victor Luis</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>José Rodríguez</t>
+          <t>Mauricio Lemos</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Manuel Capasso</t>
+          <t>José Rodríguez</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Lucas Piton</t>
+          <t>Manuel Capasso</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>João Victor</t>
+          <t>Lucas Piton</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Lucas Freitas</t>
+          <t>João Victor</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Riquelme</t>
+          <t>Lucas Freitas</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Paulo Henrique</t>
+          <t>Riquelme</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Paulinho</t>
+          <t>Paulo Henrique</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Lyncon Correa</t>
+          <t>Paulinho</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Paulo Ricardo</t>
+          <t>Lyncon Correa</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Loide Augusto</t>
+          <t>Paulo Ricardo</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>Loide Augusto</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Luiz Gustavo</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Luiz Gustavo</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Gabriel Soares</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -9043,12 +9043,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Tchê Tchê</t>
+          <t>Gabriel Soares</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Tchê Tchê</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Jair</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Alex Teixeira</t>
+          <t>Jair</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Josef</t>
+          <t>Alex Teixeira</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Hugo Moura</t>
+          <t>Josef</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tucuruí</t>
+          <t>Hugo Moura</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Juan Sforza</t>
+          <t>Tucuruí</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Adson</t>
+          <t>Juan Sforza</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Bruno Lazaroni</t>
+          <t>Adson</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Bruno Lopes</t>
+          <t>Bruno Lazaroni</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Wallace</t>
+          <t>Bruno Lopes</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Andrey</t>
+          <t>Wallace</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Leonardo Araujo</t>
+          <t>Andrey</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -9281,12 +9281,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Dimitri Payet</t>
+          <t>Leonardo Araujo</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Jean Meneses</t>
+          <t>Dimitri Payet</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Pablo Vegetti</t>
+          <t>Jean Meneses</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Benjamín Garré</t>
+          <t>Pablo Vegetti</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Gabriel Sousa</t>
+          <t>Benjamín Garré</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Rayan</t>
+          <t>Gabriel Sousa</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Léo Jacó</t>
+          <t>Rayan</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Léo Jacó</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Guilherme Estrella</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Maxsuel</t>
+          <t>Guilherme Estrella</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Riquelme</t>
+          <t>Maxsuel</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Pedro Augusto</t>
+          <t>Riquelme</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Euder</t>
+          <t>Pedro Augusto</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Diego Ahmed</t>
+          <t>Euder</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Nuno Moreira</t>
+          <t>Diego Ahmed</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
@@ -9536,12 +9536,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Lucas Oliveira</t>
+          <t>Nuno Moreira</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Left Winger</t>
         </is>
       </c>
     </row>
@@ -9553,29 +9553,29 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Philippe Coutinho</t>
+          <t>Lucas Oliveira</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Centre-Back</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Philippe Coutinho</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Yuri Sena</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Fintelman</t>
+          <t>Yuri Sena</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Lucas Arcanjo</t>
+          <t>Fintelman</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Luis Eduardo</t>
+          <t>Lucas Arcanjo</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Davi Barbosa</t>
+          <t>Luis Eduardo</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9672,12 +9672,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Neris</t>
+          <t>Davi Barbosa</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Carlos Eduardo</t>
+          <t>Neris</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Jamerson</t>
+          <t>Carlos Eduardo</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Raúl Cáceres</t>
+          <t>Jamerson</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Lucas Halter</t>
+          <t>Raúl Cáceres</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Claudinho</t>
+          <t>Lucas Halter</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Zé Marcos</t>
+          <t>Claudinho</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Leo Augusto</t>
+          <t>Zé Marcos</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Hugo Flahaut</t>
+          <t>Leo Augusto</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Bruno Uvini</t>
+          <t>Hugo Flahaut</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Andrei</t>
+          <t>Bruno Uvini</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Buiu</t>
+          <t>Andrei</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Kauan</t>
+          <t>Buiu</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Gean</t>
+          <t>Kauan</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Kauan Vitor</t>
+          <t>Gean</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9927,12 +9927,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Bruno Xavier</t>
+          <t>Kauan Vitor</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Willian Oliveira</t>
+          <t>Bruno Xavier</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Lucas Braga</t>
+          <t>Willian Oliveira</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9978,7 +9978,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Ronald</t>
+          <t>Lucas Braga</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Ricardo Ryller</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Gabriel Baralhas</t>
+          <t>Ricardo Ryller</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>João Pedro Pepê</t>
+          <t>Gabriel Baralhas</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>João Pedro Pepê</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Matheuzinho</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Jobert</t>
+          <t>Matheuzinho</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Edenilson</t>
+          <t>Alisson Santos</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Thiago Conti</t>
+          <t>Edenilson</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Thiago Conti</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10165,7 +10165,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Fabio Camara</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Felipe Cardoso</t>
+          <t>Fabio Camara</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Wendell</t>
+          <t>Felipe Cardoso</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Wanderson</t>
+          <t>Wendell</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -10233,12 +10233,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Thiaguinho</t>
+          <t>Wanderson</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Osvaldo</t>
+          <t>Thiaguinho</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Renato Kayzer</t>
+          <t>Osvaldo</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Carlinhos</t>
+          <t>Renato Kayzer</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Wellington Rato</t>
+          <t>Carlinhos</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Erick</t>
+          <t>Wellington Rato</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Fabrício</t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Gustavo Mosquito</t>
+          <t>Fabrício</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Carlos Eduardo</t>
+          <t>Gustavo Mosquito</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Janderson Costa</t>
+          <t>Carlos Eduardo</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Lawan</t>
+          <t>Janderson Costa</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Paulo Roberto</t>
+          <t>Lawan</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Marcos Vinicius</t>
+          <t>Paulo Roberto</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Emanoel</t>
+          <t>Marcos Vinicius</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Emanoel</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10483,17 +10483,17 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Agustín Rossi</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Matheus Cunha</t>
+          <t>Agustín Rossi</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Francisco Dyogo</t>
+          <t>Matheus Cunha</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Caio Barone</t>
+          <t>Francisco Dyogo</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Lucas Furtado</t>
+          <t>Caio Barone</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Léo Nannetti</t>
+          <t>Lucas Furtado</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -10590,12 +10590,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Ayrton Lucas</t>
+          <t>Léo Nannetti</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Leo Ortiz</t>
+          <t>Ayrton Lucas</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Guillermo Varela</t>
+          <t>Leo Ortiz</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Guillermo Varela</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Léo Pereira</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10675,7 +10675,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Matías Viña</t>
+          <t>Léo Pereira</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Cleiton Santos</t>
+          <t>Matías Viña</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Wesley</t>
+          <t>Cleiton Santos</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Zé Welington</t>
+          <t>Wesley</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Zé Welington</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10760,7 +10760,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Rayan Lucas</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Iago</t>
+          <t>Rayan Lucas</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Carbone</t>
+          <t>Iago</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Carbone</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>João Pedro</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Wesley</t>
+          <t>João Pedro</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Gusttavo</t>
+          <t>Wesley</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Wanderson</t>
+          <t>Gusttavo</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Johnny Goes</t>
+          <t>Wanderson</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10913,12 +10913,12 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Giorgian De Arrascaeta</t>
+          <t>Johnny Goes</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Gerson</t>
+          <t>Giorgian De Arrascaeta</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Erick Pulgar</t>
+          <t>Gerson</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Erick Pulgar</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Nicolas de la Cruz</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Darlan</t>
+          <t>Nicolas de la Cruz</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -11015,7 +11015,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Evertton</t>
+          <t>Darlan</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Ainoã</t>
+          <t>Evertton</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Yan</t>
+          <t>Ainoã</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Fabiano</t>
+          <t>Yan</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Felipe</t>
+          <t>Fabiano</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Caio</t>
+          <t>Felipe</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>João Victor</t>
+          <t>Caio</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Felipe Vieira</t>
+          <t>João Victor</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Felipe Vieira</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11219,7 +11219,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Luiz Felipe</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Luiz Felipe</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -11253,12 +11253,12 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Éverton</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Bruno Henrique</t>
+          <t>Éverton</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Luiz Araújo</t>
+          <t>Bruno Henrique</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Juninho</t>
+          <t>Luiz Araújo</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Juninho</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11355,7 +11355,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Gonzalo Plata</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Matheus Martins</t>
+          <t>Gonzalo Plata</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Lorran</t>
+          <t>Matheus Martins</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -11406,7 +11406,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Lorran</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Elijah Ogundana</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Rafael Vargas</t>
+          <t>Elijah Ogundana</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11457,12 +11457,12 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Danilo</t>
+          <t>Rafael Vargas</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
@@ -11474,29 +11474,29 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Alex Sandro</t>
+          <t>Danilo</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Fernando Miguel</t>
+          <t>Alex Sandro</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Left-Back</t>
         </is>
       </c>
     </row>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Keiller</t>
+          <t>Fernando Miguel</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Keiller</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Bruno</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Deivid</t>
+          <t>Bruno</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Gabriel Rocha</t>
+          <t>Deivid</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11593,12 +11593,12 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Marllon</t>
+          <t>Gabriel Rocha</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Ramon</t>
+          <t>Marllon</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Nicolas Vichiatto</t>
+          <t>Ramon</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Luiz Otávio</t>
+          <t>Nicolas Vichiatto</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Éder Ferreira</t>
+          <t>Luiz Otávio</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Willian Machado</t>
+          <t>Éder Ferreira</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Rafael Ramos</t>
+          <t>Willian Machado</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Lucas Lima</t>
+          <t>Rafael Ramos</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Matheus Bahia</t>
+          <t>Lucas Lima</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -11746,7 +11746,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Gabriel Lacerda</t>
+          <t>Matheus Bahia</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Marcos Victor</t>
+          <t>Gabriel Lacerda</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Dieguinho</t>
+          <t>Marcos Victor</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Bruno Santos</t>
+          <t>Dieguinho</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Jose Ferreira</t>
+          <t>Bruno Santos</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Pedro Esli</t>
+          <t>Jose Ferreira</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Vinicius Menezes Uchella</t>
+          <t>Pedro Esli</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -11865,12 +11865,12 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Richardson</t>
+          <t>Vinicius Menezes Uchella</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Fernando Sobral</t>
+          <t>Richardson</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Pedro Henrique</t>
+          <t>Fernando Sobral</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Lucas Mugni</t>
+          <t>Pedro Henrique</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Matheus Araújo</t>
+          <t>Lucas Mugni</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Matheus Araújo</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Joao Victor</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Bruno Tubarão</t>
+          <t>Joao Victor</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Leo Rafael</t>
+          <t>Bruno Tubarão</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Silvio Martínez</t>
+          <t>Leo Rafael</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Silvio Martínez</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>José Wilson</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12069,12 +12069,12 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Aylon</t>
+          <t>José Wilson</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Lourenço</t>
+          <t>Aylon</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Pedro Raul</t>
+          <t>Lourenço</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Fernandinho</t>
+          <t>Pedro Raul</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Jorge Recalde</t>
+          <t>Fernandinho</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Antonio Galeano</t>
+          <t>Jorge Recalde</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Antonio Galeano</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12188,7 +12188,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Romulo</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Lele</t>
+          <t>Romulo</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Guilherme Luiz</t>
+          <t>Lele</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -12239,7 +12239,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Kadu</t>
+          <t>Guilherme Luiz</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -12256,29 +12256,29 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Fabiano Silva</t>
+          <t>Kadu</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>João Ricardo</t>
+          <t>Fabiano Silva</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Right-Back</t>
         </is>
       </c>
     </row>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Magrão</t>
+          <t>João Ricardo</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Brenno Costa</t>
+          <t>Magrão</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12324,12 +12324,12 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Diogo Barbosa</t>
+          <t>Brenno Costa</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Bruno Pacheco</t>
+          <t>Diogo Barbosa</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -12358,7 +12358,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Yago Pikachu</t>
+          <t>Bruno Pacheco</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Felipe Jonatan</t>
+          <t>Yago Pikachu</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12392,7 +12392,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>David Luiz</t>
+          <t>Felipe Jonatan</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12409,7 +12409,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Tinga</t>
+          <t>David Luiz</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Erandir</t>
+          <t>Tinga</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Benjamín Kuščević</t>
+          <t>Erandir</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Titi</t>
+          <t>Benjamín Kuščević</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Emanuel Brítez</t>
+          <t>Titi</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Eros Mancuso</t>
+          <t>Emanuel Brítez</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Geilson</t>
+          <t>Eros Mancuso</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Gustavo da Silva</t>
+          <t>Geilson</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12545,7 +12545,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Arthur Barbosa</t>
+          <t>Gustavo da Silva</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -12562,7 +12562,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Arthur Barbosa</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Eduardo Correia</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Gustavo Nobre</t>
+          <t>Eduardo Correia</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>João Lucas</t>
+          <t>Gustavo Nobre</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12630,12 +12630,12 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Matheus Rossetto</t>
+          <t>João Lucas</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Lucas Sasha</t>
+          <t>Matheus Rossetto</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Marinho</t>
+          <t>Lucas Sasha</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Leandro Martínez</t>
+          <t>Marinho</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Guillermo Fernández</t>
+          <t>Leandro Martínez</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -12715,7 +12715,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Tomás Pochettino</t>
+          <t>Guillermo Fernández</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -12732,7 +12732,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Dylan Borrero</t>
+          <t>Tomás Pochettino</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -12749,7 +12749,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Pedro Augusto</t>
+          <t>Dylan Borrero</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Calebe</t>
+          <t>Pedro Augusto</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12783,7 +12783,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Kervin Andrade</t>
+          <t>Calebe</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -12800,7 +12800,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Jose Welison</t>
+          <t>Kervin Andrade</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Rodrigo</t>
+          <t>Jose Welison</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Lucca Prior</t>
+          <t>Rodrigo</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Bruno Branco</t>
+          <t>Lucca Prior</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Caio</t>
+          <t>Bruno Branco</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Kleberson Ruan</t>
+          <t>Caio</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12902,12 +12902,12 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Deyverson</t>
+          <t>Kleberson Ruan</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Juan Lucero</t>
+          <t>Deyverson</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Moises</t>
+          <t>Juan Lucero</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Breno Lopes</t>
+          <t>Moises</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Allanzinho</t>
+          <t>Breno Lopes</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -12987,7 +12987,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Jhonnatha</t>
+          <t>Allanzinho</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13004,7 +13004,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Jhonnatha</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Landerson</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -13038,7 +13038,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Bruno Cesar</t>
+          <t>Landerson</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Isaac Gomes</t>
+          <t>Bruno Cesar</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>André Ricardo</t>
+          <t>Isaac Gomes</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -13089,29 +13089,29 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Gastón Ávila</t>
+          <t>André Ricardo</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Gastón Ávila</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Back</t>
         </is>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Ruan Carneiro</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Marcão</t>
+          <t>Ruan Carneiro</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -13157,7 +13157,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Zé Henrique</t>
+          <t>Marcão</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -13174,12 +13174,12 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Alan Ruschel</t>
+          <t>Zé Henrique</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Reginaldo</t>
+          <t>Alan Ruschel</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Rodrigo Sam</t>
+          <t>Reginaldo</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Wilker Ángel</t>
+          <t>Rodrigo Sam</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>Wilker Ángel</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13259,7 +13259,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>André Filipinho</t>
+          <t>Peixoto</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Adriano Martins</t>
+          <t>André Filipinho</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Ewerthon</t>
+          <t>Adriano Martins</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13310,7 +13310,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Cipriano</t>
+          <t>Ewerthon</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -13327,7 +13327,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Kawan</t>
+          <t>Cipriano</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13344,7 +13344,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Natã</t>
+          <t>Kawan</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13361,7 +13361,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Marcos Paulo</t>
+          <t>Natã</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13378,7 +13378,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Abner</t>
+          <t>Marcos Paulo</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Gabriel Souza</t>
+          <t>Abner</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Jádson</t>
+          <t>Gabriel Souza</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Nenê</t>
+          <t>Jádson</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Gabriel Taliari</t>
+          <t>Nenê</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Jean Carlos</t>
+          <t>Gabriel Taliari</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Daniel Giraldo</t>
+          <t>Jean Carlos</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Caique</t>
+          <t>Daniel Giraldo</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Giovanny</t>
+          <t>Caique</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Ênio</t>
+          <t>Giovanny</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -13548,7 +13548,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Enmerson Batalla</t>
+          <t>Ênio</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Gabriel Tota</t>
+          <t>Enmerson Batalla</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Kelvi</t>
+          <t>Gabriel Tota</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Luiz Mandaca</t>
+          <t>Kelvi</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Guilherme Gehring</t>
+          <t>Luiz Mandaca</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Joao Trevisol</t>
+          <t>Guilherme Gehring</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -13650,7 +13650,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Davi Goes</t>
+          <t>Joao Trevisol</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -13667,12 +13667,12 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Matheus Babi</t>
+          <t>Davi Goes</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>Offence</t>
+          <t>Midfield</t>
         </is>
       </c>
     </row>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Gilberto</t>
+          <t>Matheus Babi</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Edson Pernambuco</t>
+          <t>Gilberto</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -13718,7 +13718,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Maurício Garcez</t>
+          <t>Edson Pernambuco</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Petterson</t>
+          <t>Maurício Garcez</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Rafael Pinna</t>
+          <t>Petterson</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -13769,7 +13769,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Marlon</t>
+          <t>Rafael Pinna</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -13786,7 +13786,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Luiz</t>
+          <t>Marlon</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Caique</t>
+          <t>Luiz</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Galego</t>
+          <t>Caique</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -13832,17 +13832,17 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Cleiton</t>
+          <t>Galego</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Offence</t>
         </is>
       </c>
     </row>
@@ -13854,7 +13854,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Fabrício</t>
+          <t>Cleiton</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Lucão</t>
+          <t>Fabrício</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -13888,7 +13888,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Fernando Henrique</t>
+          <t>Lucão</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -13905,12 +13905,12 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Pedro Henrique</t>
+          <t>Fernando Henrique</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>Defence</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Juninho Capixaba</t>
+          <t>Pedro Henrique</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>Ariel Sant'Anna</t>
+          <t>Juninho Capixaba</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Eduardo Santos</t>
+          <t>Ariel Sant'Anna</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -13973,7 +13973,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>José Hurtado</t>
+          <t>Eduardo Santos</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Guzmán Rodríguez</t>
+          <t>José Hurtado</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Halls</t>
+          <t>Guzmán Rodríguez</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -14024,7 +14024,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Halls</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -14041,7 +14041,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Gustavo Henrique</t>
+          <t>Moreira</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Sergio Palacios</t>
+          <t>Gustavo Henrique</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Kauan Martins</t>
+          <t>Sergio Palacios</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Kevyn Monteiro</t>
+          <t>Kauan Martins</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Vinicius Lago</t>
+          <t>Kevyn Monteiro</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -14143,12 +14143,12 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Matheus Fernandes</t>
+          <t>Vinicius Lago</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>Midfield</t>
+          <t>Defence</t>
         </is>
       </c>
     </row>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Matheus Fernandes</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -14177,7 +14177,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Vitinho</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Eric Ramires</t>
+          <t>Vitinho</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Ignacio Laquintana</t>
+          <t>Eric Ramires</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -14228,7 +14228,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Isidro Pitta</t>
+          <t>Ignacio Laquintana</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Bruno Praxedes</t>
+          <t>Isidro Pitta</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -14262,7 +14262,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Lucas Barbosa</t>
+          <t>Bruno Praxedes</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Lucas Barbosa</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Jhonatan</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Fabinho</t>
+          <t>Jhonatan</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14330,7 +14330,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Gustavinho</t>
+          <t>Fabinho</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -14347,7 +14347,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Alexandre Cesar</t>
+          <t>Gustavinho</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Yuri Silva</t>
+          <t>Alexandre Cesar</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Rai de Oliveira</t>
+          <t>Yuri Silva</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
